--- a/Program/Other/L9133_底稿_會計與主檔餘額檢核表.xlsx
+++ b/Program/Other/L9133_底稿_會計與主檔餘額檢核表.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34B2FBB-EB21-4DD2-A311-84CE340C1F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38C03C4-D9AF-4C70-ABC3-C623A4860C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="檢核表" sheetId="1" r:id="rId1"/>
-    <sheet name="未銷帳" sheetId="3" r:id="rId2"/>
+    <sheet name="應收應付" sheetId="5" r:id="rId2"/>
+    <sheet name="未銷帳" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>區隔帳冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,11 +424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CD5734-99F4-4209-97BC-5EC8E580EFF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C342989-13AD-40D2-84B0-56338C3623D5}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -464,4 +465,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CD5734-99F4-4209-97BC-5EC8E580EFF3}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Program/Other/L9133_底稿_會計與主檔餘額檢核表.xlsx
+++ b/Program/Other/L9133_底稿_會計與主檔餘額檢核表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38C03C4-D9AF-4C70-ABC3-C623A4860C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="檢核表" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>區隔帳冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,12 +53,28 @@
   </si>
   <si>
     <t>銷帳檔與主檔差額</t>
+  </si>
+  <si>
+    <t>前日餘額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨增減</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,20 +395,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.59765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="30.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,15 +419,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -424,20 +451,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C342989-13AD-40D2-84B0-56338C3623D5}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.59765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="30.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,15 +475,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -468,20 +507,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CD5734-99F4-4209-97BC-5EC8E580EFF3}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.59765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="30.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,18 +528,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Program/Other/L9133_底稿_會計與主檔餘額檢核表.xlsx
+++ b/Program/Other/L9133_底稿_會計與主檔餘額檢核表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D76BF3-EAFF-4123-8B64-14DDA6AFEB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="檢核表" sheetId="1" r:id="rId1"/>
-    <sheet name="應收應付" sheetId="5" r:id="rId2"/>
-    <sheet name="未銷帳" sheetId="3" r:id="rId3"/>
+    <sheet name="檢核表" sheetId="6" r:id="rId1"/>
+    <sheet name="應收應付" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,56 +26,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+  <si>
+    <t>銷帳檔與主檔差額</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新光人壽保險股份有限公司</t>
+  </si>
+  <si>
+    <t>機密等級：機密</t>
+  </si>
+  <si>
+    <t>報　表：L9133</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款會計與主檔餘額檢核表</t>
+  </si>
+  <si>
+    <t>日　　期：12/21/22</t>
+  </si>
+  <si>
+    <t>時　　間：14:48:14</t>
+  </si>
+  <si>
+    <t>頁　　次：1</t>
+  </si>
+  <si>
+    <t>科目</t>
+  </si>
   <si>
     <t>區隔帳冊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>會計帳餘額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前日餘額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>減</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨增減</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>銷帳檔餘額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主檔餘額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期擔保放款</t>
+  </si>
+  <si>
+    <t>00A傳統帳冊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>201利變帳冊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小       計</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期擔保放款</t>
+  </si>
+  <si>
+    <t>長期擔保放款</t>
+  </si>
+  <si>
+    <t>三十年房屋貸款</t>
+  </si>
+  <si>
+    <t>催收款項</t>
+  </si>
+  <si>
+    <t>應收應付檢核表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>會計檔與主檔差額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷帳檔與主檔差額</t>
-  </si>
-  <si>
-    <t>前日餘額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>減</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淨增減</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,11 +132,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,18 +177,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -395,151 +508,980 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.59765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="30.09765625" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.8984375" style="2" customWidth="1"/>
+    <col min="5" max="9" width="18.59765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.09765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.59765625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.09765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1"/>
+      <c r="M3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1"/>
+      <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" customHeight="1" thickTop="1">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8">
+        <f>SUM(C6:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
+        <f>SUM(E6:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <f>SUM(F6:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(G6:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <f>SUM(H6:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <f>SUM(I6:I7)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8">
+        <f>SUM(K6:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <f>SUM(L6:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <f>SUM(M6:M7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="22.5" customHeight="1">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8">
+        <f>SUM(C10:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
+        <f>SUM(E10:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <f>SUM(F10:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(G10:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H10:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <f>SUM(I10:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8">
+        <f>SUM(K10:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <f>SUM(L10:L11)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <f>SUM(M10:M11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="22.5" customHeight="1">
+      <c r="B13" s="1"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" ref="H14" si="0">F14-G14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8">
+        <f>SUM(C14:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
+        <f>SUM(E14:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <f>SUM(F14:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(G14:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <f>SUM(H14:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <f>SUM(I14:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8">
+        <f>SUM(K14:K15)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <f>SUM(L14:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <f>SUM(M14:M15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="22.5" customHeight="1">
+      <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="8">
+        <f>SUM(C18:C19)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8">
+        <f>SUM(E18:E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>SUM(F18:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(G18:G19)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <f>SUM(H18:H19)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <f>SUM(I18:I19)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8">
+        <f>SUM(K18:K19)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <f>SUM(L18:L19)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <f>SUM(M18:M19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="22.5" customHeight="1">
+      <c r="B21" s="1"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="8">
+        <f>SUM(C22:C23)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
+        <f>SUM(E22:E23)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <f>SUM(F22:F23)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <f>SUM(G22:G23)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <f>SUM(H22:H23)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <f>SUM(I22:I23)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8">
+        <f>SUM(K22:K23)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <f>SUM(L22:L23)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <f>SUM(M22:M23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="22.5" customHeight="1">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.59765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="30.09765625" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.8984375" style="2" customWidth="1"/>
+    <col min="5" max="9" width="18.59765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.09765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.59765625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.09765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1"/>
+      <c r="M3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1"/>
+      <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" customHeight="1" thickTop="1">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" customHeight="1">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="22.5" customHeight="1">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="22.5" customHeight="1">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="22.5" customHeight="1">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="22.5" customHeight="1">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="22.5" customHeight="1">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="22.5" customHeight="1">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="22.5" customHeight="1">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="24.59765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="30.09765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>